--- a/templates/edna_template1_excel.current.en.xlsx
+++ b/templates/edna_template1_excel.current.en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdr273/doc-edna-tool-guide/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6CDBF-2132-B844-A76E-C1BDCAC08363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B447915C-D82F-2F47-A125-0311AA236182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" activeTab="3" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36520" windowHeight="25060" activeTab="3" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
   </bookViews>
   <sheets>
     <sheet name="OTU_table" sheetId="1" r:id="rId1"/>
@@ -328,76 +328,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">All rows in this sheet is example data and should be deleted.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The sheet contains all the required and recommended fields for a DNA metabarcoding dataset meant for GBIF.org. Further fields from the DNA derived data extension (and Occurrence Core) can be added as columns/fields. Fields not using DwC terms (or spelled incorrectly) can be mapped to standardized DwC terms during the data processing.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-----
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+All rows in this sheet is example data and should be deleted.
+The sheet contains all the required and recommended fields for a DNA metabarcoding dataset meant for GBIF.org. Further fields from the DNA derived data extension (and Occurrence Core) can be added as columns/fields. Fields not using DwC terms (or spelled incorrectly) can be mapped to standardized DwC terms during the data processing.
+-----
 </t>
         </r>
         <r>
@@ -409,17 +342,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">"id" (THIS FiIELD)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
+REQUIRED
 </t>
         </r>
         <r>
@@ -489,17 +412,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Comments: </t>
+Comments: </t>
         </r>
         <r>
           <rPr>
@@ -520,28 +433,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> – </t>
+Examples:
+ – </t>
         </r>
         <r>
           <rPr>
@@ -551,36 +444,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">serials like: "OTU_001, OTU_002, OTU_003, ..." or "ASV1, ASV2, ASV3, ...", "Seq00001, Seq00002, Seq00003, ..."
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> – md5 hashes of the sequenc: "6b23e6bc0fbe2cde18b5d2d17335f54157a629fb, 282a4068f53f33244f372079ce7634af48ff32dc, fcf6642261e836a14d1e996e9d19f5b5d5d633f9, ..."
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> – unique names from another resource: "ljkasde, sdfjw,sdfxcv, asdpojde, ..."
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+ – md5 hashes of the sequence: "6b23e6bc0fbe2cde18b5d2d17335f54157a629fb, 282a4068f53f33244f372079ce7634af48ff32dc, fcf6642261e836a14d1e996e9d19f5b5d5d633f9, ..."
+ – unique names from another resource: "ljkasde, sdfjw,sdfxcv, asdpojde, ..."
 </t>
         </r>
         <r>
@@ -653,16 +518,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t>NB: In this template, the sequences are provided as a field in this table, which is the only difference between template 1 and template 2.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">NB: In this template, the sequences are provided as a field in this table, which is the only difference between template 1 and template 2.
 </t>
         </r>
         <r>
@@ -693,16 +549,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t>in other contexts listed as highly recommended, but needed for the tool to be able to perform a suficient processing.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">in other contexts listed as highly recommended, but needed for the tool to be able to process the data sufficiently.
 </t>
         </r>
         <r>
@@ -733,16 +580,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> The DNA sequence. Referring to the sequence representing the OTU, ASV and other types of representative sequences resulting from bioinformatic processing of raw sequencing data from DNA metabarcoding.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> Referring to the sequence representing the OTU, ASV and other types of representative sequences resulting from bioinformatic processing of raw sequencing data from DNA metabarcoding.
 </t>
         </r>
         <r>
@@ -773,16 +611,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t>Taxonomic interpretation of the sequence depends on the technology and reference library available at the time of publication. Hence, the most objective taxonomic handle is the sequence which can be reinterpreted in the future. preferably use UPPERCASE. Use the classical DNA nucleotide characters. Sequences should be trimmed for primer sequences and adapters, etc.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Taxonomic interpretation of the sequence depends on the technology and reference library available at the time of publication. Hence, the most objective taxonomic handle is the sequence which can be reinterpreted in the future. preferably use UPPERCASE. Use the classical DNA nucleotide characters. Sequences should be trimmed for primer sequences and adapters, etc.
 </t>
         </r>
         <r>
@@ -1157,10 +986,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Here you can add further fields that relate directly to the single OTUs, and have different values.</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">Here you can add further fields that relate directly to the single OTUs, and have different values.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1171,6 +1002,25 @@
         </r>
         <r>
           <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Terms can be from Darwin Core Occurrence (https://rs.gbif.org/core/dwc_occurrence_2024-02-23.xml) or DNA Derived Data Extension  (https://rs.gbif.org/extension/gbif/1.0/dna_derived_data_2022-02-23.xml)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
@@ -1229,7 +1079,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">identificationRemarks </t>
+          <t xml:space="preserve">identificationRemarks  </t>
         </r>
       </text>
     </comment>
@@ -1313,7 +1163,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">The sheet contains all the required and recommended fields for a DNA metabarcoding dataset meant for GBIF.org. Further fields from the DNA derived data extension (and Occurrence Core) can be added as columns/fields. Fields not using DwC terms (or spelled incorrectly) can be mapped to standardized DwC terms during the data processing. Relevant information/measurements that does not correspond to any standard term can be accomodated in extended Measurements or Facts (option during processing); include only measurement here (units, etc. can be added in the processing). Fields that are not relevant to standardize but still included as fields will be included in the BIOM file, but excluded from the DwC archive.
+          <t xml:space="preserve">The sheet contains all the required and recommended fields for a DNA metabarcoding dataset meant for publishing on GBIF.org. Further fields from the DNA derived data extension (and Occurrence Core) can be added as columns/fields. Fields not using DwC terms (or spelled incorrectly) can be mapped to standardized DwC terms during the data processing. Relevant information/measurements that does not correspond to any standard term can be accomodated in extended Measurements or Facts (option during processing); include only measurement here (units, etc. can be added in the processing). Fields that are not relevant to standardize but still included as fields will be included in the BIOM file, but excluded from the DwC archive.
 </t>
         </r>
         <r>
@@ -1496,7 +1346,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">serials like: "Sample_1, Sample_2, Sample_3,..." or "S1, S2, S3, ...", "Site00001, Site00002, Site00003, ..."
+          <t xml:space="preserve">serials: "Sample_1, Sample_2, Sample_3,..." or "S1, S2, S3, ...", "Site00001, Site00002, Site00003, ..."
 </t>
         </r>
         <r>
@@ -1885,7 +1735,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> A list (concatenated and separated) of identifiers (publication, global unique identifier, URI). For most cases it woule be linking to archived raw metabarcoding read files in a public repository.
+          <t xml:space="preserve"> A list (concatenated and separated) of identifiers (publication, global unique identifier, URI). For most cases it would be linking to archived raw metabarcoding read files in a public repository.
 </t>
         </r>
         <r>
@@ -1915,7 +1765,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">We recommend using links to the associated read files in ENA or SRA
+          <t xml:space="preserve">recommended best practice is to include links to the associated read files in ENA or SRA
 </t>
         </r>
         <r>
@@ -2192,37 +2042,77 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t>Here you can add further fields that relate directly to the single samples, and have different values across samples .</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">NB: Some fields related to samples should be possible to give as one global value (in the *Study* table). </t>
+          <t xml:space="preserve">Here you can add additional fields that relate directly to the single samples, and have different values across samples.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Terms can be from Darwin Core Occurrence (https://rs.gbif.org/core/dwc_occurrence_2024-02-23.xml) or DNA Derived Data Extension  (https://rs.gbif.org/extension/gbif/1.0/dna_derived_data_2022-02-23.xml)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">NB: Some fields related to samples should be possible to give as one global value (in the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Study</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> table). </t>
         </r>
         <r>
           <rPr>
@@ -2263,7 +2153,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">: In this template we have moved most sample related fields to the Study table. 
+          <t xml:space="preserve">: In this template we have placed most sample related fields to the Study table. 
 </t>
         </r>
         <r>
@@ -2382,63 +2272,26 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">may </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">have </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>more than one value and should be placed in this table</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>recordedBy (different sampling persons?)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">may have </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">more than one value and should be placed in this table 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">recordedBy (different sampling persons?)
 </t>
         </r>
         <r>
@@ -2547,25 +2400,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> to have </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>more than one value and RARELY placed in this table</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve"> to have more than one value and RARELY placed in this table 
 </t>
         </r>
         <r>
@@ -2987,25 +2822,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Targeted gene or marker name</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> Targeted gene or marker name
 </t>
         </r>
         <r>
@@ -5657,6 +5474,651 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{A4D6B40D-D632-E141-9CDF-0E885DE4A03F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Here you can add additional fields that relate to all samples, i.e. terms that have one global value
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Terms can be from Darwin Core Occurrence (https://rs.gbif.org/core/dwc_occurrence_2024-02-23.xml) or DNA Derived Data Extension  (https://rs.gbif.org/extension/gbif/1.0/dna_derived_data_2022-02-23.xml)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Examples of fields that </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">almost always </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">have only one value and should be placed in this table </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>target_gene</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>target_subfragment</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pcr_primer_forward</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pcr_primer_reverse</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pcr_primer_name_forward</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pcr_primer_name_reverse</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pcr_primer_reference</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>sop</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>seq_meth</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>otu_db</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>lib_layout</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>otu_class_appr</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Fields that </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">may have </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">only one value and should be placed in this table 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">recordedBy (e.g. only one sampling persons?)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>env_medium (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">e.g. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">only sediment samples?)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>env_broad_scale (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">e.g. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">only freshwater?)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>env_local_scale (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">e.g. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">only root tissue?)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>samplingProtocol (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">e.g. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">only pan traps?)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">samp_collec_device
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">samp_collec_method
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">samp_mat_process
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Fields that </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">very often </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>have more than one value and should be placed the Samples table:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">eventDate </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>decimalLatitude</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>decimalLongitude</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>associatedSequences</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>materialSampleID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
       </text>
     </comment>
@@ -5665,7 +6127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -5895,7 +6357,7 @@
     <t>otu_seq_comp_appr</t>
   </si>
   <si>
-    <t>further terms</t>
+    <t>additional terms</t>
   </si>
 </sst>
 </file>
@@ -5905,7 +6367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5964,6 +6426,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="+mn-lt"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6334,9 +6802,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C892BD8-C93C-C74D-A89F-6FFFFFF15579}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
@@ -6430,9 +6900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE51FA6-FDC1-C849-8BE1-0F90841A6D9E}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -6580,9 +7052,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2128B45-DA79-B649-82CD-21102A8D0AD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -6716,11 +7190,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73708D4D-E6C2-A347-9F42-4980BDC24EB9}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
@@ -6829,6 +7305,11 @@
         <v>75</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
